--- a/module_5/Slide/Audit.xlsx
+++ b/module_5/Slide/Audit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -274,6 +280,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -284,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,7 +591,7 @@
   <dimension ref="D2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +621,7 @@
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -625,7 +637,7 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -657,11 +669,11 @@
       <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:5" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
         <v>9</v>
       </c>
@@ -677,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="4:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <v>11</v>
       </c>
@@ -685,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5">
         <v>12</v>
       </c>
@@ -693,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="4:5" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <v>13</v>
       </c>
@@ -793,7 +805,7 @@
       <c r="D28" s="5">
         <v>25</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -805,7 +817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="4:5" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="5">
         <v>27</v>
       </c>
@@ -837,7 +849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="5">
         <v>31</v>
       </c>
@@ -909,7 +921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="4:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="5">
         <v>40</v>
       </c>
